--- a/docs/HEYDAY-proto-backend API_list.xlsx
+++ b/docs/HEYDAY-proto-backend API_list.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\DIGITAL TRANSFORMATION\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vscode-projects\digital-transformation-server\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75BEDB4E-DCFB-458C-9BD5-8329F9B27619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{260C9ADA-4ED4-42C4-A892-97928CCF1E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,11 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="99">
-  <si>
-    <t>/qr_certification</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="96">
   <si>
     <t>/signin</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -137,14 +133,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>QR 인증 요청 제출, 승인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NFC 인증 요청 제출, 승인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>센터 회원 목록 가져오기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -193,10 +181,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/nfc_certification</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/signup</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -293,14 +277,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/end_wokrout_session</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>req_end_workout_session.py</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>req_exercise_libraries.py</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -313,14 +289,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>req_nfc_certification.py</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>req_qr_certification.py</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>req_signin.py</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -341,10 +309,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>인증 세션 끊기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/users/&lt;user_id&gt;/workout_sessions/recent</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -422,6 +386,30 @@
   </si>
   <si>
     <t>/users/&lt;user_id&gt;/reports/recent/exercise_libraries/&lt;exercise_library_id&gt;/&lt;set_number&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/centers/&lt;center_id&gt;/equipments/&lt;center_equipment_id&gt;/auth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/centers/&lt;center_id&gt;/equipments/&lt;center_equipment_id&gt;/leave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;center_equipment_id&gt; 장비와 연동된 하드웨어 앱 인증하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;center_equipment_id&gt; 장비로 하는 운동 끝내기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>req_center_equipments_auth.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>req_center_equipments_leave.py</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -527,7 +515,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -539,9 +527,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -841,10 +826,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:E37"/>
+  <dimension ref="B3:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -855,31 +840,31 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:5">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>49</v>
+      <c r="D3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>28</v>
+      <c r="C4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -890,10 +875,10 @@
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -901,13 +886,13 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>66</v>
+        <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="2:5">
@@ -915,13 +900,13 @@
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="2:5">
@@ -929,13 +914,13 @@
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -943,13 +928,13 @@
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="2:5">
@@ -957,13 +942,13 @@
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -971,13 +956,13 @@
         <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -985,167 +970,167 @@
         <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" s="3">
         <v>10</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>22</v>
+      <c r="C13" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="2:5">
       <c r="B14" s="3">
         <v>11</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>20</v>
+      <c r="C14" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="2:5">
       <c r="B15" s="3">
         <v>12</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>21</v>
+      <c r="C15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="2:5">
       <c r="B16" s="3">
         <v>13</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>29</v>
+      <c r="C16" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="2:5">
       <c r="B17" s="3">
         <v>14</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>30</v>
+      <c r="C17" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>92</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="3">
         <v>15</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>31</v>
+      <c r="C18" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>93</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="2:5">
       <c r="B19" s="3">
         <v>16</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>32</v>
+      <c r="C19" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" s="3">
         <v>17</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>50</v>
+      <c r="C20" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="2:5">
       <c r="B21" s="3">
         <v>18</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>33</v>
+      <c r="C21" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="2:5">
       <c r="B22" s="3">
         <v>19</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>34</v>
+      <c r="C22" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="2:5">
       <c r="B23" s="3">
         <v>20</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>35</v>
+      <c r="C23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="2:5">
@@ -1153,13 +1138,13 @@
         <v>21</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="2:5">
@@ -1167,27 +1152,27 @@
         <v>22</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="2:5">
       <c r="B26" s="3">
         <v>23</v>
       </c>
-      <c r="C26" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>45</v>
+      <c r="C26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="2:5">
@@ -1195,55 +1180,55 @@
         <v>24</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>90</v>
+        <v>73</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="2:5">
       <c r="B28" s="3">
         <v>25</v>
       </c>
-      <c r="C28" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>91</v>
+      <c r="C28" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="2:5">
       <c r="B29" s="3">
         <v>26</v>
       </c>
-      <c r="C29" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>93</v>
+      <c r="C29" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="2:5">
       <c r="B30" s="3">
         <v>27</v>
       </c>
-      <c r="C30" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>93</v>
+      <c r="C30" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="2:5">
@@ -1251,13 +1236,13 @@
         <v>28</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>92</v>
+        <v>56</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="2:5">
@@ -1265,83 +1250,55 @@
         <v>29</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="2:5">
       <c r="B33" s="3">
         <v>30</v>
       </c>
-      <c r="C33" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>60</v>
+      <c r="C33" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="2:5">
       <c r="B34" s="3">
         <v>31</v>
       </c>
-      <c r="C34" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>61</v>
+      <c r="C34" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="2:5">
       <c r="B35" s="3">
         <v>32</v>
       </c>
-      <c r="C35" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>62</v>
+      <c r="C35" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5">
-      <c r="B36" s="3">
-        <v>33</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5">
-      <c r="B37" s="3">
-        <v>34</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1353,312 +1310,237 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C83664D7-CBC5-4F8C-908A-2EAE3B99D8F1}">
-  <dimension ref="B2:E22"/>
+  <dimension ref="B2:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="108.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="66.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="56.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="108.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="66.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5">
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="2:4">
+      <c r="B2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="C2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="6" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="3" spans="2:5">
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5">
-      <c r="B4" s="3">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="B5" s="3">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
-      <c r="B6" s="3">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="C14" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="2:5">
-      <c r="B7" s="3">
-        <v>8</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
-      <c r="B8" s="3">
-        <v>9</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9" s="3">
-        <v>16</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="2" t="s">
+    <row r="15" spans="2:4">
+      <c r="B15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="7" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="B10" s="3">
-        <v>17</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11" s="3">
-        <v>23</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="C18" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="6" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12" s="3">
-        <v>24</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5">
-      <c r="B13" s="3">
-        <v>25</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="C20" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="6" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="14" spans="2:5">
-      <c r="B14" s="3">
-        <v>26</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E14" s="6" t="s">
+      <c r="C21" s="6" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="15" spans="2:5">
-      <c r="B15" s="3">
-        <v>27</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5">
-      <c r="B16" s="3">
-        <v>28</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5">
-      <c r="B17" s="3">
-        <v>29</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18" s="3">
-        <v>30</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E18" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5">
-      <c r="B19" s="3">
-        <v>31</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5">
-      <c r="B20" s="3">
-        <v>32</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5">
-      <c r="B21" s="3">
-        <v>33</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5">
-      <c r="B22" s="3">
-        <v>34</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1669,479 +1551,369 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D03F71D9-DE2C-475A-B6E7-E1A58E34F6BF}">
-  <dimension ref="B2:E34"/>
+  <dimension ref="B2:D33"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="3" max="3" width="108.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="66.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="56.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="108.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="66.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5">
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="2:4">
+      <c r="B2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="C17" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="6" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="3" spans="2:5">
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5">
-      <c r="B4" s="3">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="B5" s="3">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
-      <c r="B6" s="3">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5">
-      <c r="B7" s="3">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
-      <c r="B8" s="3">
-        <v>6</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9" s="3">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="C26" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="2:5">
-      <c r="B10" s="3">
-        <v>8</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11" s="3">
-        <v>9</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12" s="3">
-        <v>10</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="2" t="s">
+    <row r="27" spans="2:4">
+      <c r="B27" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="2:5">
-      <c r="B13" s="3">
-        <v>11</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5">
-      <c r="B14" s="3">
-        <v>12</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5">
-      <c r="B15" s="3">
-        <v>13</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5">
-      <c r="B16" s="3">
-        <v>14</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5">
-      <c r="B17" s="3">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18" s="3">
-        <v>16</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5">
-      <c r="B19" s="3">
-        <v>17</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5">
-      <c r="B20" s="3">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5">
-      <c r="B21" s="3">
-        <v>19</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5">
-      <c r="B22" s="3">
-        <v>20</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E22" s="2" t="s">
+    <row r="31" spans="2:4">
+      <c r="B31" s="6" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="23" spans="2:5">
-      <c r="B23" s="3">
-        <v>21</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5">
-      <c r="B24" s="3">
-        <v>22</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5">
-      <c r="B25" s="3">
-        <v>24</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E25" s="2" t="s">
+      <c r="C31" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" s="6" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="26" spans="2:5">
-      <c r="B26" s="3">
-        <v>26</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E26" s="6" t="s">
+      <c r="C32" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="27" spans="2:5">
-      <c r="B27" s="3">
-        <v>27</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5">
-      <c r="B28" s="3">
-        <v>28</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5">
-      <c r="B29" s="3">
-        <v>29</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5">
-      <c r="B30" s="3">
-        <v>30</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E30" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5">
-      <c r="B31" s="3">
-        <v>31</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5">
-      <c r="B32" s="3">
-        <v>32</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5">
-      <c r="B33" s="3">
-        <v>33</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5">
-      <c r="B34" s="3">
-        <v>34</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/docs/HEYDAY-proto-backend API_list.xlsx
+++ b/docs/HEYDAY-proto-backend API_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vscode-projects\digital-transformation-server\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{260C9ADA-4ED4-42C4-A892-97928CCF1E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{162004C6-8B8A-4D4A-B914-A356C25E680B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="api_list" sheetId="1" r:id="rId1"/>
@@ -401,15 +401,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;center_equipment_id&gt; 장비로 하는 운동 끝내기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>req_center_equipments_auth.py</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>req_center_equipments_leave.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;center_equipment_id&gt; 장비 사용 마무리하기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -515,7 +515,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -544,6 +544,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -828,8 +834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1036,31 +1042,31 @@
       </c>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="3">
+      <c r="B17" s="10">
         <v>14</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="10">
+        <v>15</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18" s="3">
-        <v>15</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="19" spans="2:5">
@@ -1313,7 +1319,7 @@
   <dimension ref="B2:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1522,25 +1528,25 @@
       </c>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1553,8 +1559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D03F71D9-DE2C-475A-B6E7-E1A58E34F6BF}">
   <dimension ref="B2:D33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1895,25 +1901,25 @@
       </c>
     </row>
     <row r="32" spans="2:4">
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4">
-      <c r="B33" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/docs/HEYDAY-proto-backend API_list.xlsx
+++ b/docs/HEYDAY-proto-backend API_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vscode-projects\digital-transformation-server\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{162004C6-8B8A-4D4A-B914-A356C25E680B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444F18F8-31D6-4040-8D07-63EB42620CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="api_list" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="99">
   <si>
     <t>/signin</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -410,6 +410,18 @@
   </si>
   <si>
     <t>&lt;center_equipment_id&gt; 장비 사용 마무리하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/users/&lt;user_id&gt;/workouts/exercise_libraries/&lt;exercise_library_id&gt;/report/recent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/users/&lt;user_id&gt;/workouts/exercise_libraries/&lt;exercise_library_id&gt;/&lt;set_number&gt;/report/recent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>req_users_workouts_exerciselibrary_report.py</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -515,7 +527,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -550,6 +562,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -834,8 +849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:E35"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1280,31 +1295,31 @@
       </c>
     </row>
     <row r="34" spans="2:5">
-      <c r="B34" s="3">
+      <c r="B34" s="10">
         <v>31</v>
       </c>
-      <c r="C34" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D34" s="7" t="s">
+      <c r="C34" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D34" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>75</v>
+      <c r="E34" s="4" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="2:5">
-      <c r="B35" s="3">
+      <c r="B35" s="10">
         <v>32</v>
       </c>
-      <c r="C35" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D35" s="6" t="s">
+      <c r="C35" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D35" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>75</v>
+      <c r="E35" s="4" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1559,8 +1574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D03F71D9-DE2C-475A-B6E7-E1A58E34F6BF}">
   <dimension ref="B2:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B40" sqref="B39:B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
